--- a/RPG Core Combat Creator Course/Assets/Game/GameData/GameStats.xlsx
+++ b/RPG Core Combat Creator Course/Assets/Game/GameData/GameStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\RPG_Tutorial_Core_Rick_Sam\RPG_Core_Tutorial\RPG Core Combat Creator Course\Assets\Game\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6C3FFB-84BE-4D64-9EFD-3C7B9064963B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BA5D8-461E-4A3C-9542-62D25D181946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5592BC0E-9695-4FDB-B743-54AB887AFE45}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
